--- a/databaseDesign.xlsx
+++ b/databaseDesign.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Users</t>
   </si>
@@ -56,9 +56,6 @@
     <t>dateTime, non-null</t>
   </si>
   <si>
-    <t>varChar(50), non-null</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>FK (from Users)</t>
   </si>
   <si>
-    <t>varChar(10), non-null</t>
-  </si>
-  <si>
-    <t>varChar(100), non-null</t>
-  </si>
-  <si>
     <t>address1</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>zip</t>
   </si>
   <si>
-    <t>varChar(5), non-null</t>
-  </si>
-  <si>
     <t>isDiscoverable</t>
   </si>
   <si>
@@ -102,6 +90,21 @@
   </si>
   <si>
     <t>boolean, not-null</t>
+  </si>
+  <si>
+    <t>nvarChar(50), non-null</t>
+  </si>
+  <si>
+    <t>nvarChar(10), non-null</t>
+  </si>
+  <si>
+    <t>nvarChar(10), null</t>
+  </si>
+  <si>
+    <t>nvarChar(100), non-null</t>
+  </si>
+  <si>
+    <t>nvarChar(5), non-null</t>
   </si>
 </sst>
 </file>
@@ -820,7 +823,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="19"/>
     </row>
@@ -853,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="19"/>
     </row>
@@ -862,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="19"/>
     </row>
@@ -871,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -880,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="19"/>
     </row>
@@ -915,25 +918,25 @@
         <v>6</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="19"/>
     </row>
@@ -942,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D18" s="19"/>
     </row>
@@ -951,70 +954,70 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D21" s="20"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D26" s="20"/>
     </row>
